--- a/tesis_doctorado/datav2023/base_temas_longv2023.xlsx
+++ b/tesis_doctorado/datav2023/base_temas_longv2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E410"/>
+  <dimension ref="A1:E416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3372,11 +3372,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C144">
-        <v>1990</v>
+        <v>2023</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -3393,11 +3393,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C145">
-        <v>2001</v>
+        <v>2023</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -3414,11 +3414,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C146">
-        <v>2006</v>
+        <v>2023</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -3439,20 +3439,20 @@
         </is>
       </c>
       <c r="C147">
-        <v>2011</v>
+        <v>1990</v>
       </c>
       <c r="D147">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="C148">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="D148">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="C149">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -3505,11 +3505,11 @@
         <v>2011</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
@@ -3530,13 +3530,13 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>2011</v>
       </c>
       <c r="D152">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -3565,20 +3565,20 @@
         </is>
       </c>
       <c r="C153">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="D153">
         <v>1</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="D154">
         <v>0.5</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="C155">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="D155">
         <v>0.5</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -3635,13 +3635,13 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -3691,20 +3691,20 @@
         </is>
       </c>
       <c r="C159">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D159">
         <v>1</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -3712,10 +3712,10 @@
         </is>
       </c>
       <c r="C160">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="C161">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
@@ -3782,21 +3782,21 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C164">
-        <v>2008</v>
+        <v>2021</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -3809,43 +3809,43 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C165">
-        <v>2008</v>
+        <v>2021</v>
       </c>
       <c r="D165">
         <v>1</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C166">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="D166">
         <v>1</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="C167">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -3880,14 +3880,14 @@
         </is>
       </c>
       <c r="C168">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="D168">
         <v>1</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="C170">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -3935,70 +3935,70 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="C171">
-        <v>1984</v>
+        <v>2013</v>
       </c>
       <c r="D171">
         <v>1</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="C172">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="D172">
         <v>1</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="C173">
-        <v>2006</v>
+        <v>2018</v>
       </c>
       <c r="D173">
         <v>1</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -4006,20 +4006,20 @@
         </is>
       </c>
       <c r="C174">
-        <v>2013</v>
+        <v>1984</v>
       </c>
       <c r="D174">
         <v>1</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -4027,14 +4027,14 @@
         </is>
       </c>
       <c r="C175">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="D175">
         <v>1</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
@@ -4048,14 +4048,14 @@
         </is>
       </c>
       <c r="C176">
-        <v>2021</v>
+        <v>2006</v>
       </c>
       <c r="D176">
         <v>1</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
@@ -4069,14 +4069,14 @@
         </is>
       </c>
       <c r="C177">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="D177">
         <v>1</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
@@ -4090,14 +4090,14 @@
         </is>
       </c>
       <c r="C178">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D178">
         <v>1</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
         <v>2021</v>
       </c>
       <c r="D180">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -4156,49 +4156,49 @@
         <v>2021</v>
       </c>
       <c r="D181">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="C182">
-        <v>1994</v>
+        <v>2021</v>
       </c>
       <c r="D182">
         <v>1</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="C183">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4208,36 +4208,36 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="C184">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="C185">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -4258,14 +4258,14 @@
         </is>
       </c>
       <c r="C186">
-        <v>2019</v>
+        <v>1994</v>
       </c>
       <c r="D186">
         <v>1</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
@@ -4275,74 +4275,74 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="C187">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="D187">
         <v>1</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="C188">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="D188">
         <v>1</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="C189">
-        <v>2004</v>
+        <v>2019</v>
       </c>
       <c r="D189">
         <v>1</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="C190">
-        <v>2004</v>
+        <v>2019</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -4355,22 +4355,22 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="C191">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D191">
         <v>1</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
@@ -4384,14 +4384,14 @@
         </is>
       </c>
       <c r="C192">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="D192">
         <v>1</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
@@ -4405,14 +4405,14 @@
         </is>
       </c>
       <c r="C193">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="D193">
         <v>1</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="C194">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -4447,20 +4447,20 @@
         </is>
       </c>
       <c r="C195">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="D195">
         <v>1</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -4468,20 +4468,20 @@
         </is>
       </c>
       <c r="C196">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D196">
         <v>1</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         </is>
       </c>
       <c r="C197">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -4517,13 +4517,13 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -4538,28 +4538,28 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="C200">
-        <v>1963</v>
+        <v>2019</v>
       </c>
       <c r="D200">
         <v>1</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
@@ -4569,74 +4569,74 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="C201">
-        <v>1983</v>
+        <v>2019</v>
       </c>
       <c r="D201">
         <v>1</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="C202">
-        <v>1989</v>
+        <v>2019</v>
       </c>
       <c r="D202">
         <v>1</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="C203">
-        <v>1993</v>
+        <v>2019</v>
       </c>
       <c r="D203">
         <v>1</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="C204">
-        <v>2002</v>
+        <v>1963</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -4649,28 +4649,28 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="C205">
-        <v>2014</v>
+        <v>1983</v>
       </c>
       <c r="D205">
         <v>1</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -4678,20 +4678,20 @@
         </is>
       </c>
       <c r="C206">
-        <v>2020</v>
+        <v>1989</v>
       </c>
       <c r="D206">
         <v>1</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="C207">
-        <v>2020</v>
+        <v>1993</v>
       </c>
       <c r="D207">
         <v>1</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="C208">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="D208">
         <v>1</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="C209">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -4754,36 +4754,36 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="C210">
-        <v>2000</v>
+        <v>2020</v>
       </c>
       <c r="D210">
         <v>1</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="C211">
-        <v>2006</v>
+        <v>2020</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -4804,20 +4804,20 @@
         </is>
       </c>
       <c r="C212">
-        <v>2006</v>
+        <v>1994</v>
       </c>
       <c r="D212">
         <v>1</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="C213">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="C214">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -4867,20 +4867,20 @@
         </is>
       </c>
       <c r="C215">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D215">
         <v>1</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="C216">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="C217">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -4930,28 +4930,28 @@
         </is>
       </c>
       <c r="C218">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="D218">
         <v>1</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C219">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -4964,64 +4964,64 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C220">
-        <v>2007</v>
+        <v>2018</v>
       </c>
       <c r="D220">
         <v>1</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C221">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="D221">
         <v>1</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C222">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="D222">
         <v>1</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
@@ -5035,14 +5035,14 @@
         </is>
       </c>
       <c r="C223">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="D223">
         <v>1</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="C224">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="C227">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="C228">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="C229">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -5182,20 +5182,20 @@
         </is>
       </c>
       <c r="C230">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D230">
         <v>1</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -5210,13 +5210,13 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         </is>
       </c>
       <c r="C233">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C234">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="C235">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -5308,91 +5308,91 @@
         </is>
       </c>
       <c r="C236">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D236">
         <v>1</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C237">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="D237">
         <v>1</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C238">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D238">
         <v>1</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C239">
-        <v>1986</v>
+        <v>2019</v>
       </c>
       <c r="D239">
         <v>1</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C240">
-        <v>1986</v>
+        <v>2023</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -5405,22 +5405,22 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C241">
-        <v>1994</v>
+        <v>2023</v>
       </c>
       <c r="D241">
         <v>1</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
@@ -5430,18 +5430,18 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C242">
-        <v>1994</v>
+        <v>2023</v>
       </c>
       <c r="D242">
         <v>1</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
@@ -5451,18 +5451,18 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C243">
-        <v>1998</v>
+        <v>2023</v>
       </c>
       <c r="D243">
         <v>1</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
@@ -5472,32 +5472,32 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C244">
-        <v>1998</v>
+        <v>2023</v>
       </c>
       <c r="D244">
         <v>1</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="C245">
-        <v>2002</v>
+        <v>2013</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -5510,28 +5510,28 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="C246">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="D246">
         <v>1</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -5539,20 +5539,20 @@
         </is>
       </c>
       <c r="C247">
-        <v>2006</v>
+        <v>1986</v>
       </c>
       <c r="D247">
         <v>1</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -5560,20 +5560,20 @@
         </is>
       </c>
       <c r="C248">
-        <v>2006</v>
+        <v>1986</v>
       </c>
       <c r="D248">
         <v>1</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         </is>
       </c>
       <c r="C249">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -5602,20 +5602,20 @@
         </is>
       </c>
       <c r="C250">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="D250">
         <v>1</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -5623,10 +5623,10 @@
         </is>
       </c>
       <c r="C251">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="D251">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="252">
       <c r="A252">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -5644,20 +5644,20 @@
         </is>
       </c>
       <c r="C252">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="D252">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -5665,20 +5665,20 @@
         </is>
       </c>
       <c r="C253">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D253">
         <v>1</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -5686,10 +5686,10 @@
         </is>
       </c>
       <c r="C254">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D254">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
     </row>
     <row r="255">
       <c r="A255">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -5707,20 +5707,20 @@
         </is>
       </c>
       <c r="C255">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D255">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="C256">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D256">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="257">
       <c r="A257">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -5752,17 +5752,17 @@
         <v>2010</v>
       </c>
       <c r="D257">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>2010</v>
       </c>
       <c r="D258">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="259">
       <c r="A259">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -5798,13 +5798,13 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -5812,20 +5812,20 @@
         </is>
       </c>
       <c r="C260">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         </is>
       </c>
       <c r="C261">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="262">
       <c r="A262">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="C262">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D262">
         <v>0.5</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         </is>
       </c>
       <c r="C263">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D263">
         <v>0.5</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="264">
       <c r="A264">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C264">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D264">
         <v>0.5</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="265">
       <c r="A265">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="C265">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D265">
         <v>0.5</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -5938,10 +5938,10 @@
         </is>
       </c>
       <c r="C266">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="267">
       <c r="A267">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -5959,20 +5959,20 @@
         </is>
       </c>
       <c r="C267">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -5987,13 +5987,13 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -6008,13 +6008,13 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>2014</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -6043,20 +6043,20 @@
         </is>
       </c>
       <c r="C271">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -6064,20 +6064,20 @@
         </is>
       </c>
       <c r="C272">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -6085,20 +6085,20 @@
         </is>
       </c>
       <c r="C273">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -6106,20 +6106,20 @@
         </is>
       </c>
       <c r="C274">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D274">
         <v>1</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="C275">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="276">
       <c r="A276">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -6148,20 +6148,20 @@
         </is>
       </c>
       <c r="C276">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D276">
         <v>1</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -6169,20 +6169,20 @@
         </is>
       </c>
       <c r="C277">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D277">
         <v>1</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -6190,20 +6190,20 @@
         </is>
       </c>
       <c r="C278">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D278">
         <v>1</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="280">
       <c r="A280">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="282">
       <c r="A282">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -6281,13 +6281,13 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="284">
       <c r="A284">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -6323,13 +6323,13 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -6344,13 +6344,13 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -6365,13 +6365,13 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -6379,20 +6379,20 @@
         </is>
       </c>
       <c r="C287">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D287">
         <v>1</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -6400,20 +6400,20 @@
         </is>
       </c>
       <c r="C288">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D288">
         <v>1</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -6421,20 +6421,20 @@
         </is>
       </c>
       <c r="C289">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D289">
         <v>1</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -6442,20 +6442,20 @@
         </is>
       </c>
       <c r="C290">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D290">
         <v>1</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         </is>
       </c>
       <c r="C291">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -6476,7 +6476,7 @@
     </row>
     <row r="292">
       <c r="A292">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         </is>
       </c>
       <c r="C292">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D292">
         <v>1</v>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="293">
       <c r="A293">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -6505,20 +6505,20 @@
         </is>
       </c>
       <c r="C293">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D293">
         <v>1</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C294">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -6539,7 +6539,7 @@
     </row>
     <row r="295">
       <c r="A295">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -6554,13 +6554,13 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -6575,13 +6575,13 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -6596,13 +6596,13 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="299">
       <c r="A299">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -6638,13 +6638,13 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="301">
       <c r="A301">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -6680,13 +6680,13 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -6701,13 +6701,13 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -6722,13 +6722,13 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="305">
       <c r="A305">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -6760,17 +6760,17 @@
         <v>2022</v>
       </c>
       <c r="D305">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -6781,17 +6781,17 @@
         <v>2022</v>
       </c>
       <c r="D306">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -6833,18 +6833,18 @@
     </row>
     <row r="309">
       <c r="A309">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C309">
-        <v>1998</v>
+        <v>2022</v>
       </c>
       <c r="D309">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -6854,39 +6854,39 @@
     </row>
     <row r="310">
       <c r="A310">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C310">
-        <v>1998</v>
+        <v>2022</v>
       </c>
       <c r="D310">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C311">
-        <v>2002</v>
+        <v>2022</v>
       </c>
       <c r="D311">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -6896,99 +6896,99 @@
     </row>
     <row r="312">
       <c r="A312">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C312">
-        <v>2002</v>
+        <v>2022</v>
       </c>
       <c r="D312">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C313">
-        <v>2002</v>
+        <v>2022</v>
       </c>
       <c r="D313">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C314">
-        <v>2002</v>
+        <v>2022</v>
       </c>
       <c r="D314">
         <v>0.5</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C315">
-        <v>2002</v>
+        <v>2022</v>
       </c>
       <c r="D315">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C316">
-        <v>2002</v>
+        <v>2022</v>
       </c>
       <c r="D316">
         <v>1</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="317">
       <c r="A317">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -7009,10 +7009,10 @@
         </is>
       </c>
       <c r="C317">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="D317">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="318">
       <c r="A318">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -7030,20 +7030,20 @@
         </is>
       </c>
       <c r="C318">
-        <v>2018</v>
+        <v>1998</v>
       </c>
       <c r="D318">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -7051,20 +7051,20 @@
         </is>
       </c>
       <c r="C319">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D319">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -7072,20 +7072,20 @@
         </is>
       </c>
       <c r="C320">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D320">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -7093,20 +7093,20 @@
         </is>
       </c>
       <c r="C321">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D321">
         <v>1</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         </is>
       </c>
       <c r="C322">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D322">
         <v>0.5</v>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="323">
       <c r="A323">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         </is>
       </c>
       <c r="C323">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D323">
         <v>0.5</v>
@@ -7148,7 +7148,7 @@
     </row>
     <row r="324">
       <c r="A324">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -7156,20 +7156,20 @@
         </is>
       </c>
       <c r="C324">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="D324">
         <v>1</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -7177,20 +7177,20 @@
         </is>
       </c>
       <c r="C325">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="D325">
         <v>1</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -7198,20 +7198,20 @@
         </is>
       </c>
       <c r="C326">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D326">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="C327">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D327">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="328">
       <c r="A328">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -7240,20 +7240,20 @@
         </is>
       </c>
       <c r="C328">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D328">
         <v>1</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -7261,20 +7261,20 @@
         </is>
       </c>
       <c r="C329">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D329">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -7282,20 +7282,20 @@
         </is>
       </c>
       <c r="C330">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D330">
         <v>0.5</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -7303,20 +7303,20 @@
         </is>
       </c>
       <c r="C331">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D331">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>2014</v>
       </c>
       <c r="D332">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="333">
       <c r="A333">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -7348,17 +7348,17 @@
         <v>2014</v>
       </c>
       <c r="D333">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="335">
       <c r="A335">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
     </row>
     <row r="336">
       <c r="A336">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -7411,17 +7411,17 @@
         <v>2014</v>
       </c>
       <c r="D336">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -7436,13 +7436,13 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -7450,20 +7450,20 @@
         </is>
       </c>
       <c r="C338">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D338">
         <v>0.5</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -7471,20 +7471,20 @@
         </is>
       </c>
       <c r="C339">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D339">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -7492,20 +7492,20 @@
         </is>
       </c>
       <c r="C340">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D340">
         <v>0.5</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         </is>
       </c>
       <c r="C341">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D341">
         <v>0.5</v>
@@ -7526,7 +7526,7 @@
     </row>
     <row r="342">
       <c r="A342">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -7534,20 +7534,20 @@
         </is>
       </c>
       <c r="C342">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D342">
         <v>0.5</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="C343">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D343">
         <v>0.5</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="344">
       <c r="A344">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         </is>
       </c>
       <c r="C344">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D344">
         <v>0.5</v>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="345">
       <c r="A345">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         </is>
       </c>
       <c r="C345">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D345">
         <v>0.5</v>
@@ -7610,7 +7610,7 @@
     </row>
     <row r="346">
       <c r="A346">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="347">
       <c r="A347">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="348">
       <c r="A348">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="349">
       <c r="A349">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
     </row>
     <row r="350">
       <c r="A350">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>2018</v>
       </c>
       <c r="D350">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="351">
       <c r="A351">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -7726,17 +7726,17 @@
         <v>2018</v>
       </c>
       <c r="D351">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -7751,13 +7751,13 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
     </row>
     <row r="354">
       <c r="A354">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="355">
       <c r="A355">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
     </row>
     <row r="356">
       <c r="A356">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="357">
       <c r="A357">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="358">
       <c r="A358">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
     </row>
     <row r="359">
       <c r="A359">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
     </row>
     <row r="360">
       <c r="A360">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -7915,17 +7915,17 @@
         <v>2018</v>
       </c>
       <c r="D360">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>2018</v>
       </c>
       <c r="D361">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
     </row>
     <row r="362">
       <c r="A362">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -7961,13 +7961,13 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="364">
       <c r="A364">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>2018</v>
       </c>
       <c r="D364">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="365">
       <c r="A365">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -8020,17 +8020,17 @@
         <v>2018</v>
       </c>
       <c r="D365">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -8041,17 +8041,17 @@
         <v>2018</v>
       </c>
       <c r="D366">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -8066,13 +8066,13 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -8087,13 +8087,13 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -8108,13 +8108,13 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -8125,17 +8125,17 @@
         <v>2018</v>
       </c>
       <c r="D370">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -8146,17 +8146,17 @@
         <v>2018</v>
       </c>
       <c r="D371">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -8164,20 +8164,20 @@
         </is>
       </c>
       <c r="C372">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D372">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -8185,20 +8185,20 @@
         </is>
       </c>
       <c r="C373">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D373">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -8206,20 +8206,20 @@
         </is>
       </c>
       <c r="C374">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D374">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -8227,20 +8227,20 @@
         </is>
       </c>
       <c r="C375">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D375">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -8248,20 +8248,20 @@
         </is>
       </c>
       <c r="C376">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D376">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         </is>
       </c>
       <c r="C377">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D377">
         <v>1</v>
@@ -8282,7 +8282,7 @@
     </row>
     <row r="378">
       <c r="A378">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -8290,10 +8290,10 @@
         </is>
       </c>
       <c r="C378">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D378">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="379">
       <c r="A379">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -8311,20 +8311,20 @@
         </is>
       </c>
       <c r="C379">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D379">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="381">
       <c r="A381">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="382">
       <c r="A382">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>2022</v>
       </c>
       <c r="D382">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
     </row>
     <row r="383">
       <c r="A383">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -8402,13 +8402,13 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -8419,17 +8419,17 @@
         <v>2022</v>
       </c>
       <c r="D384">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -8440,17 +8440,17 @@
         <v>2022</v>
       </c>
       <c r="D385">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -8461,17 +8461,17 @@
         <v>2022</v>
       </c>
       <c r="D386">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -8482,17 +8482,17 @@
         <v>2022</v>
       </c>
       <c r="D387">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -8507,13 +8507,13 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -8524,17 +8524,17 @@
         <v>2022</v>
       </c>
       <c r="D389">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="391">
       <c r="A391">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="392">
       <c r="A392">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -8587,17 +8587,17 @@
         <v>2022</v>
       </c>
       <c r="D392">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -8608,17 +8608,17 @@
         <v>2022</v>
       </c>
       <c r="D393">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>2022</v>
       </c>
       <c r="D394">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="395">
       <c r="A395">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -8654,13 +8654,13 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -8675,13 +8675,13 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -8696,13 +8696,13 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -8717,13 +8717,13 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -8738,13 +8738,13 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -8755,17 +8755,17 @@
         <v>2022</v>
       </c>
       <c r="D400">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
     </row>
     <row r="402">
       <c r="A402">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="403">
       <c r="A403">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="404">
       <c r="A404">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
     </row>
     <row r="405">
       <c r="A405">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
     </row>
     <row r="406">
       <c r="A406">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -8891,18 +8891,18 @@
     </row>
     <row r="407">
       <c r="A407">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Republica Dominicana</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="C407">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="D407">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -8912,62 +8912,188 @@
     </row>
     <row r="408">
       <c r="A408">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="C408">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="D408">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="C409">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D409">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410">
+        <v>383</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C410">
+        <v>2022</v>
+      </c>
+      <c r="D410">
+        <v>0.5</v>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>pr_temalibre</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411">
+        <v>384</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C411">
+        <v>2022</v>
+      </c>
+      <c r="D411">
+        <v>0.5</v>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>pr_temapuntuales</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412">
+        <v>384</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C412">
+        <v>2022</v>
+      </c>
+      <c r="D412">
+        <v>0.5</v>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>pr_temalibre</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413">
+        <v>385</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Republica Dominicana</t>
+        </is>
+      </c>
+      <c r="C413">
+        <v>2016</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>pr_temapuntuales</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414">
+        <v>387</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="C414">
+        <v>2014</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>pr_temabloques</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415">
         <v>388</v>
       </c>
-      <c r="B410" t="inlineStr">
+      <c r="B415" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="C410">
+      <c r="C415">
         <v>2019</v>
       </c>
-      <c r="D410">
-        <v>1</v>
-      </c>
-      <c r="E410" t="inlineStr">
+      <c r="D415">
+        <v>1</v>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>pr_temabloques</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416">
+        <v>389</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="C416">
+        <v>2019</v>
+      </c>
+      <c r="D416">
+        <v>1</v>
+      </c>
+      <c r="E416" t="inlineStr">
         <is>
           <t>pr_temabloques</t>
         </is>

--- a/tesis_doctorado/datav2023/base_temas_longv2023.xlsx
+++ b/tesis_doctorado/datav2023/base_temas_longv2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         </is>
       </c>
       <c r="C179">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="235">
       <c r="A235">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="252">
       <c r="A252">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="253">
       <c r="A253">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="254">
       <c r="A254">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
     </row>
     <row r="255">
       <c r="A255">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="256">
       <c r="A256">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="257">
       <c r="A257">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="258">
       <c r="A258">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="259">
       <c r="A259">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="262">
       <c r="A262">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="264">
       <c r="A264">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="265">
       <c r="A265">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="267">
       <c r="A267">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="268">
       <c r="A268">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="269">
       <c r="A269">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
     </row>
     <row r="270">
       <c r="A270">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
     </row>
     <row r="272">
       <c r="A272">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="273">
       <c r="A273">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
     </row>
     <row r="274">
       <c r="A274">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="275">
       <c r="A275">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="276">
       <c r="A276">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
     </row>
     <row r="277">
       <c r="A277">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="278">
       <c r="A278">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="279">
       <c r="A279">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="280">
       <c r="A280">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="282">
       <c r="A282">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="283">
       <c r="A283">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="284">
       <c r="A284">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="285">
       <c r="A285">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="286">
       <c r="A286">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="287">
       <c r="A287">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="288">
       <c r="A288">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="289">
       <c r="A289">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="290">
       <c r="A290">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
     </row>
     <row r="292">
       <c r="A292">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="293">
       <c r="A293">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="294">
       <c r="A294">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
     </row>
     <row r="295">
       <c r="A295">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
     </row>
     <row r="296">
       <c r="A296">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="297">
       <c r="A297">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
     </row>
     <row r="298">
       <c r="A298">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="299">
       <c r="A299">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
     </row>
     <row r="300">
       <c r="A300">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="301">
       <c r="A301">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
     </row>
     <row r="302">
       <c r="A302">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="303">
       <c r="A303">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="304">
       <c r="A304">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="305">
       <c r="A305">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
     </row>
     <row r="306">
       <c r="A306">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="307">
       <c r="A307">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="308">
       <c r="A308">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="309">
       <c r="A309">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
     </row>
     <row r="310">
       <c r="A310">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
     </row>
     <row r="311">
       <c r="A311">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
     </row>
     <row r="312">
       <c r="A312">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="313">
       <c r="A313">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="314">
       <c r="A314">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="315">
       <c r="A315">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="316">
       <c r="A316">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="317">
       <c r="A317">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="318">
       <c r="A318">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="319">
       <c r="A319">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="320">
       <c r="A320">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="321">
       <c r="A321">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
     </row>
     <row r="322">
       <c r="A322">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="323">
       <c r="A323">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
     </row>
     <row r="324">
       <c r="A324">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
     </row>
     <row r="325">
       <c r="A325">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="326">
       <c r="A326">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
     </row>
     <row r="327">
       <c r="A327">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="328">
       <c r="A328">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="329">
       <c r="A329">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="330">
       <c r="A330">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="331">
       <c r="A331">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
     </row>
     <row r="332">
       <c r="A332">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="333">
       <c r="A333">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
     </row>
     <row r="334">
       <c r="A334">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="335">
       <c r="A335">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
     </row>
     <row r="336">
       <c r="A336">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
     </row>
     <row r="337">
       <c r="A337">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
     </row>
     <row r="338">
       <c r="A338">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="339">
       <c r="A339">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="340">
       <c r="A340">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="341">
       <c r="A341">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
     </row>
     <row r="342">
       <c r="A342">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="343">
       <c r="A343">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="344">
       <c r="A344">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="345">
       <c r="A345">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
     </row>
     <row r="346">
       <c r="A346">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="347">
       <c r="A347">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="348">
       <c r="A348">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="349">
       <c r="A349">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
     </row>
     <row r="350">
       <c r="A350">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="351">
       <c r="A351">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
     </row>
     <row r="352">
       <c r="A352">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="353">
       <c r="A353">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
     </row>
     <row r="354">
       <c r="A354">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="355">
       <c r="A355">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
     </row>
     <row r="356">
       <c r="A356">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="357">
       <c r="A357">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="358">
       <c r="A358">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
     </row>
     <row r="359">
       <c r="A359">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
     </row>
     <row r="360">
       <c r="A360">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
     </row>
     <row r="361">
       <c r="A361">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
     </row>
     <row r="362">
       <c r="A362">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
     </row>
     <row r="363">
       <c r="A363">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="364">
       <c r="A364">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="365">
       <c r="A365">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
     </row>
     <row r="366">
       <c r="A366">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
     </row>
     <row r="367">
       <c r="A367">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
     </row>
     <row r="368">
       <c r="A368">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="369">
       <c r="A369">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="370">
       <c r="A370">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="371">
       <c r="A371">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
     </row>
     <row r="372">
       <c r="A372">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
     </row>
     <row r="373">
       <c r="A373">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
     </row>
     <row r="374">
       <c r="A374">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
     </row>
     <row r="375">
       <c r="A375">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
     </row>
     <row r="376">
       <c r="A376">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
     </row>
     <row r="377">
       <c r="A377">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
     </row>
     <row r="378">
       <c r="A378">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="379">
       <c r="A379">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
     </row>
     <row r="380">
       <c r="A380">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="381">
       <c r="A381">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="382">
       <c r="A382">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
     </row>
     <row r="383">
       <c r="A383">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
     </row>
     <row r="384">
       <c r="A384">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
     </row>
     <row r="385">
       <c r="A385">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
     </row>
     <row r="386">
       <c r="A386">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
     </row>
     <row r="387">
       <c r="A387">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
     </row>
     <row r="388">
       <c r="A388">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
     </row>
     <row r="389">
       <c r="A389">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
     </row>
     <row r="390">
       <c r="A390">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="391">
       <c r="A391">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="392">
       <c r="A392">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="393">
       <c r="A393">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
     </row>
     <row r="394">
       <c r="A394">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="395">
       <c r="A395">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
     </row>
     <row r="396">
       <c r="A396">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="397">
       <c r="A397">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="398">
       <c r="A398">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
     </row>
     <row r="399">
       <c r="A399">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
     </row>
     <row r="400">
       <c r="A400">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="401">
       <c r="A401">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
     </row>
     <row r="402">
       <c r="A402">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="403">
       <c r="A403">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="404">
       <c r="A404">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
     </row>
     <row r="405">
       <c r="A405">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
     </row>
     <row r="406">
       <c r="A406">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
     </row>
     <row r="407">
       <c r="A407">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="408">
       <c r="A408">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
     </row>
     <row r="409">
       <c r="A409">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
     </row>
     <row r="410">
       <c r="A410">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
     </row>
     <row r="411">
       <c r="A411">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
     </row>
     <row r="412">
       <c r="A412">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
     </row>
     <row r="413">
       <c r="A413">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
     </row>
     <row r="414">
       <c r="A414">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
     </row>
     <row r="415">
       <c r="A415">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
     </row>
     <row r="416">
       <c r="A416">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>

--- a/tesis_doctorado/datav2023/base_temas_longv2023.xlsx
+++ b/tesis_doctorado/datav2023/base_temas_longv2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E416"/>
+  <dimension ref="A1:E426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2476,17 +2476,17 @@
         <v>2010</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2501,13 +2501,13 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2518,17 +2518,17 @@
         <v>2010</v>
       </c>
       <c r="D103">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2564,13 +2564,13 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="C107">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D107">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2620,20 +2620,20 @@
         </is>
       </c>
       <c r="C108">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D108">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2648,13 +2648,13 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>2013</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2686,17 +2686,17 @@
         <v>2013</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2711,13 +2711,13 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2725,20 +2725,20 @@
         </is>
       </c>
       <c r="C113">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D113">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2746,20 +2746,20 @@
         </is>
       </c>
       <c r="C114">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D114">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2795,13 +2795,13 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2837,13 +2837,13 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2879,13 +2879,13 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2893,10 +2893,10 @@
         </is>
       </c>
       <c r="C121">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2914,20 +2914,20 @@
         </is>
       </c>
       <c r="C122">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2935,20 +2935,20 @@
         </is>
       </c>
       <c r="C123">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2963,13 +2963,13 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2980,17 +2980,17 @@
         <v>2021</v>
       </c>
       <c r="D125">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3001,17 +3001,17 @@
         <v>2021</v>
       </c>
       <c r="D126">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3026,13 +3026,13 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3043,17 +3043,17 @@
         <v>2021</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3110,13 +3110,13 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3127,17 +3127,17 @@
         <v>2021</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3152,13 +3152,13 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3169,17 +3169,17 @@
         <v>2021</v>
       </c>
       <c r="D134">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3194,13 +3194,13 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3215,45 +3215,45 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C137">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C138">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="D138">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3263,28 +3263,28 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C139">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D139">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="C140">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3313,20 +3313,20 @@
         </is>
       </c>
       <c r="C141">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3334,10 +3334,10 @@
         </is>
       </c>
       <c r="C142">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -3355,20 +3355,20 @@
         </is>
       </c>
       <c r="C143">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>2023</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C146">
-        <v>2023</v>
+        <v>1990</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         </is>
       </c>
       <c r="C147">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         </is>
       </c>
       <c r="C148">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -3481,14 +3481,14 @@
         </is>
       </c>
       <c r="C149">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
@@ -3509,13 +3509,13 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>2011</v>
       </c>
       <c r="D151">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -3568,11 +3568,11 @@
         <v>2011</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
@@ -3593,13 +3593,13 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -3607,20 +3607,20 @@
         </is>
       </c>
       <c r="C155">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="D155">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -3631,11 +3631,11 @@
         <v>2016</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3656,13 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>2016</v>
       </c>
       <c r="D158">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -3694,11 +3694,11 @@
         <v>2016</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
@@ -3719,13 +3719,13 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -3733,20 +3733,20 @@
         </is>
       </c>
       <c r="C161">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D161">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -3782,13 +3782,13 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3830,15 +3830,15 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="C166">
-        <v>2021</v>
+        <v>2008</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3866,13 +3866,13 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3880,20 +3880,20 @@
         </is>
       </c>
       <c r="C168">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="D168">
         <v>1</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3908,13 +3908,13 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3950,13 +3950,13 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3964,20 +3964,20 @@
         </is>
       </c>
       <c r="C172">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="D172">
         <v>1</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3985,14 +3985,14 @@
         </is>
       </c>
       <c r="C173">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D173">
         <v>1</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
@@ -4240,38 +4240,38 @@
         <v>2023</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="C186">
-        <v>1994</v>
+        <v>2023</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -4279,20 +4279,20 @@
         </is>
       </c>
       <c r="C187">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="D187">
         <v>1</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="C188">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="C189">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -4355,36 +4355,36 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="C191">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="D191">
         <v>1</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="C192">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -4433,13 +4433,13 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="C195">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="C196">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C198">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -4538,13 +4538,13 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -4580,13 +4580,13 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -4601,13 +4601,13 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -4622,21 +4622,21 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="C204">
-        <v>1963</v>
+        <v>2019</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -4657,41 +4657,41 @@
         </is>
       </c>
       <c r="C205">
-        <v>1983</v>
+        <v>1963</v>
       </c>
       <c r="D205">
         <v>1</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="C206">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="D206">
         <v>1</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="C207">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -4720,20 +4720,20 @@
         </is>
       </c>
       <c r="C208">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="D208">
         <v>1</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         </is>
       </c>
       <c r="C209">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -4754,7 +4754,7 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -4762,20 +4762,20 @@
         </is>
       </c>
       <c r="C210">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D210">
         <v>1</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -4790,34 +4790,34 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="C212">
-        <v>1994</v>
+        <v>2020</v>
       </c>
       <c r="D212">
         <v>1</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -4825,20 +4825,20 @@
         </is>
       </c>
       <c r="C213">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="D213">
         <v>1</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="C215">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="C217">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -4958,13 +4958,13 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -4972,20 +4972,20 @@
         </is>
       </c>
       <c r="C220">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="D220">
         <v>1</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -5021,21 +5021,21 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C223">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="C224">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -5069,7 +5069,7 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -5077,20 +5077,20 @@
         </is>
       </c>
       <c r="C225">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="D225">
         <v>1</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -5147,13 +5147,13 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -5203,20 +5203,20 @@
         </is>
       </c>
       <c r="C231">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D231">
         <v>1</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -5231,13 +5231,13 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -5273,13 +5273,13 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -5294,13 +5294,13 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="C237">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -5357,13 +5357,13 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -5378,13 +5378,13 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -5392,20 +5392,20 @@
         </is>
       </c>
       <c r="C240">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D240">
         <v>1</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -5416,17 +5416,17 @@
         <v>2023</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>2023</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -5462,13 +5462,13 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -5479,28 +5479,28 @@
         <v>2023</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C245">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -5510,144 +5510,144 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C246">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="D246">
         <v>1</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C247">
-        <v>1986</v>
+        <v>2023</v>
       </c>
       <c r="D247">
         <v>1</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C248">
-        <v>1986</v>
+        <v>2023</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C249">
-        <v>1994</v>
+        <v>2023</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C250">
-        <v>1994</v>
+        <v>2023</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C251">
-        <v>1998</v>
+        <v>2023</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C252">
-        <v>1998</v>
+        <v>2023</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -5657,18 +5657,18 @@
     </row>
     <row r="253">
       <c r="A253">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C253">
-        <v>2002</v>
+        <v>2023</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -5678,15 +5678,15 @@
     </row>
     <row r="254">
       <c r="A254">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C254">
-        <v>2006</v>
+        <v>2023</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -5699,49 +5699,49 @@
     </row>
     <row r="255">
       <c r="A255">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="C255">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="D255">
         <v>1</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="C256">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="D256">
         <v>1</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -5749,20 +5749,20 @@
         </is>
       </c>
       <c r="C257">
-        <v>2010</v>
+        <v>1986</v>
       </c>
       <c r="D257">
         <v>1</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -5770,20 +5770,20 @@
         </is>
       </c>
       <c r="C258">
-        <v>2010</v>
+        <v>1986</v>
       </c>
       <c r="D258">
         <v>1</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -5791,10 +5791,10 @@
         </is>
       </c>
       <c r="C259">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="D259">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -5812,20 +5812,20 @@
         </is>
       </c>
       <c r="C260">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="D260">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         </is>
       </c>
       <c r="C261">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="262">
       <c r="A262">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C262">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="D262">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -5875,20 +5875,20 @@
         </is>
       </c>
       <c r="C263">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D263">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -5896,10 +5896,10 @@
         </is>
       </c>
       <c r="C264">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D264">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="265">
       <c r="A265">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -5917,20 +5917,20 @@
         </is>
       </c>
       <c r="C265">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D265">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -5938,10 +5938,10 @@
         </is>
       </c>
       <c r="C266">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D266">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="267">
       <c r="A267">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -5962,17 +5962,17 @@
         <v>2010</v>
       </c>
       <c r="D267">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -5980,20 +5980,20 @@
         </is>
       </c>
       <c r="C268">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D268">
         <v>1</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -6001,10 +6001,10 @@
         </is>
       </c>
       <c r="C269">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
     </row>
     <row r="270">
       <c r="A270">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -6022,20 +6022,20 @@
         </is>
       </c>
       <c r="C270">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D270">
         <v>0.5</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -6043,20 +6043,20 @@
         </is>
       </c>
       <c r="C271">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D271">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         </is>
       </c>
       <c r="C272">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D272">
         <v>0.5</v>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="273">
       <c r="A273">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         </is>
       </c>
       <c r="C273">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D273">
         <v>0.5</v>
@@ -6098,7 +6098,7 @@
     </row>
     <row r="274">
       <c r="A274">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -6106,10 +6106,10 @@
         </is>
       </c>
       <c r="C274">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="275">
       <c r="A275">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -6127,20 +6127,20 @@
         </is>
       </c>
       <c r="C275">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -6148,20 +6148,20 @@
         </is>
       </c>
       <c r="C276">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -6169,20 +6169,20 @@
         </is>
       </c>
       <c r="C277">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -6197,13 +6197,13 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -6211,20 +6211,20 @@
         </is>
       </c>
       <c r="C279">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D279">
         <v>1</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -6232,20 +6232,20 @@
         </is>
       </c>
       <c r="C280">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -6253,20 +6253,20 @@
         </is>
       </c>
       <c r="C281">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -6274,20 +6274,20 @@
         </is>
       </c>
       <c r="C282">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -6295,20 +6295,20 @@
         </is>
       </c>
       <c r="C283">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -6316,20 +6316,20 @@
         </is>
       </c>
       <c r="C284">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D284">
         <v>1</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -6337,20 +6337,20 @@
         </is>
       </c>
       <c r="C285">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D285">
         <v>1</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -6358,20 +6358,20 @@
         </is>
       </c>
       <c r="C286">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D286">
         <v>1</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -6379,20 +6379,20 @@
         </is>
       </c>
       <c r="C287">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D287">
         <v>1</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -6400,20 +6400,20 @@
         </is>
       </c>
       <c r="C288">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D288">
         <v>1</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="290">
       <c r="A290">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -6449,13 +6449,13 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -6470,13 +6470,13 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -6491,13 +6491,13 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="294">
       <c r="A294">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -6533,13 +6533,13 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -6547,20 +6547,20 @@
         </is>
       </c>
       <c r="C295">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D295">
         <v>1</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -6568,20 +6568,20 @@
         </is>
       </c>
       <c r="C296">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D296">
         <v>1</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -6589,20 +6589,20 @@
         </is>
       </c>
       <c r="C297">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D297">
         <v>1</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         </is>
       </c>
       <c r="C298">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D298">
         <v>1</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="299">
       <c r="A299">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -6631,20 +6631,20 @@
         </is>
       </c>
       <c r="C299">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D299">
         <v>1</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -6652,20 +6652,20 @@
         </is>
       </c>
       <c r="C300">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D300">
         <v>1</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -6673,20 +6673,20 @@
         </is>
       </c>
       <c r="C301">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D301">
         <v>1</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         </is>
       </c>
       <c r="C302">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="303">
       <c r="A303">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -6715,20 +6715,20 @@
         </is>
       </c>
       <c r="C303">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D303">
         <v>1</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -6736,20 +6736,20 @@
         </is>
       </c>
       <c r="C304">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D304">
         <v>1</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -6764,13 +6764,13 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -6785,13 +6785,13 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -6827,13 +6827,13 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
     </row>
     <row r="310">
       <c r="A310">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -6869,13 +6869,13 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -6890,13 +6890,13 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -6911,13 +6911,13 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -6928,17 +6928,17 @@
         <v>2022</v>
       </c>
       <c r="D313">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -6949,17 +6949,17 @@
         <v>2022</v>
       </c>
       <c r="D314">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -6974,13 +6974,13 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -6995,66 +6995,66 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C317">
-        <v>1998</v>
+        <v>2022</v>
       </c>
       <c r="D317">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C318">
-        <v>1998</v>
+        <v>2022</v>
       </c>
       <c r="D318">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C319">
-        <v>2002</v>
+        <v>2022</v>
       </c>
       <c r="D319">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -7064,120 +7064,120 @@
     </row>
     <row r="320">
       <c r="A320">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C320">
-        <v>2002</v>
+        <v>2022</v>
       </c>
       <c r="D320">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C321">
-        <v>2002</v>
+        <v>2022</v>
       </c>
       <c r="D321">
         <v>1</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C322">
-        <v>2002</v>
+        <v>2022</v>
       </c>
       <c r="D322">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C323">
-        <v>2002</v>
+        <v>2022</v>
       </c>
       <c r="D323">
         <v>0.5</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C324">
-        <v>2002</v>
+        <v>2022</v>
       </c>
       <c r="D324">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C325">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="D325">
         <v>1</v>
@@ -7190,28 +7190,28 @@
     </row>
     <row r="326">
       <c r="A326">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C326">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D326">
         <v>1</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -7219,20 +7219,20 @@
         </is>
       </c>
       <c r="C327">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="D327">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -7240,20 +7240,20 @@
         </is>
       </c>
       <c r="C328">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="D328">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -7261,20 +7261,20 @@
         </is>
       </c>
       <c r="C329">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D329">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -7282,20 +7282,20 @@
         </is>
       </c>
       <c r="C330">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D330">
         <v>0.5</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -7303,20 +7303,20 @@
         </is>
       </c>
       <c r="C331">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D331">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -7324,20 +7324,20 @@
         </is>
       </c>
       <c r="C332">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="D332">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -7345,20 +7345,20 @@
         </is>
       </c>
       <c r="C333">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="D333">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -7366,10 +7366,10 @@
         </is>
       </c>
       <c r="C334">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="D334">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="335">
       <c r="A335">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -7387,20 +7387,20 @@
         </is>
       </c>
       <c r="C335">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="D335">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C336">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D336">
         <v>1</v>
@@ -7421,7 +7421,7 @@
     </row>
     <row r="337">
       <c r="A337">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -7429,20 +7429,20 @@
         </is>
       </c>
       <c r="C337">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D337">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -7450,20 +7450,20 @@
         </is>
       </c>
       <c r="C338">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D338">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -7471,20 +7471,20 @@
         </is>
       </c>
       <c r="C339">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D339">
         <v>1</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -7492,20 +7492,20 @@
         </is>
       </c>
       <c r="C340">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D340">
         <v>0.5</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         </is>
       </c>
       <c r="C341">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D341">
         <v>0.5</v>
@@ -7526,7 +7526,7 @@
     </row>
     <row r="342">
       <c r="A342">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -7537,17 +7537,17 @@
         <v>2014</v>
       </c>
       <c r="D342">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -7558,17 +7558,17 @@
         <v>2014</v>
       </c>
       <c r="D343">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="345">
       <c r="A345">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
     </row>
     <row r="346">
       <c r="A346">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -7618,20 +7618,20 @@
         </is>
       </c>
       <c r="C346">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D346">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -7639,20 +7639,20 @@
         </is>
       </c>
       <c r="C347">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D347">
         <v>0.5</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -7660,20 +7660,20 @@
         </is>
       </c>
       <c r="C348">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D348">
         <v>0.5</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -7681,20 +7681,20 @@
         </is>
       </c>
       <c r="C349">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D349">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="C350">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D350">
         <v>0.5</v>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="351">
       <c r="A351">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="C351">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D351">
         <v>0.5</v>
@@ -7736,7 +7736,7 @@
     </row>
     <row r="352">
       <c r="A352">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         </is>
       </c>
       <c r="C352">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D352">
         <v>0.5</v>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="353">
       <c r="A353">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         </is>
       </c>
       <c r="C353">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D353">
         <v>0.5</v>
@@ -7778,7 +7778,7 @@
     </row>
     <row r="354">
       <c r="A354">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C354">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D354">
         <v>0.5</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="355">
       <c r="A355">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="C355">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D355">
         <v>0.5</v>
@@ -7820,7 +7820,7 @@
     </row>
     <row r="356">
       <c r="A356">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="357">
       <c r="A357">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="358">
       <c r="A358">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -7873,17 +7873,17 @@
         <v>2018</v>
       </c>
       <c r="D358">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -7894,17 +7894,17 @@
         <v>2018</v>
       </c>
       <c r="D359">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
     </row>
     <row r="361">
       <c r="A361">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
     </row>
     <row r="362">
       <c r="A362">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
     </row>
     <row r="363">
       <c r="A363">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="364">
       <c r="A364">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="365">
       <c r="A365">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
     </row>
     <row r="366">
       <c r="A366">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -8041,17 +8041,17 @@
         <v>2018</v>
       </c>
       <c r="D366">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -8062,17 +8062,17 @@
         <v>2018</v>
       </c>
       <c r="D367">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -8087,13 +8087,13 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -8108,13 +8108,13 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="371">
       <c r="A371">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
     </row>
     <row r="372">
       <c r="A372">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>2018</v>
       </c>
       <c r="D372">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
     </row>
     <row r="373">
       <c r="A373">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -8188,17 +8188,17 @@
         <v>2018</v>
       </c>
       <c r="D373">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -8209,17 +8209,17 @@
         <v>2018</v>
       </c>
       <c r="D374">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -8230,17 +8230,17 @@
         <v>2018</v>
       </c>
       <c r="D375">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -8255,13 +8255,13 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -8276,13 +8276,13 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -8297,13 +8297,13 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -8318,13 +8318,13 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -8332,20 +8332,20 @@
         </is>
       </c>
       <c r="C380">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D380">
         <v>0.5</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -8353,20 +8353,20 @@
         </is>
       </c>
       <c r="C381">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D381">
         <v>0.5</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -8374,10 +8374,10 @@
         </is>
       </c>
       <c r="C382">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D382">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
     </row>
     <row r="383">
       <c r="A383">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -8395,10 +8395,10 @@
         </is>
       </c>
       <c r="C383">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D383">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
     </row>
     <row r="384">
       <c r="A384">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -8416,20 +8416,20 @@
         </is>
       </c>
       <c r="C384">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D384">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>pr_temamonotema</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -8437,20 +8437,20 @@
         </is>
       </c>
       <c r="C385">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D385">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -8458,20 +8458,20 @@
         </is>
       </c>
       <c r="C386">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D386">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -8479,20 +8479,20 @@
         </is>
       </c>
       <c r="C387">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D387">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -8500,20 +8500,20 @@
         </is>
       </c>
       <c r="C388">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D388">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="C389">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D389">
         <v>1</v>
@@ -8534,7 +8534,7 @@
     </row>
     <row r="390">
       <c r="A390">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="391">
       <c r="A391">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -8570,13 +8570,13 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -8587,17 +8587,17 @@
         <v>2022</v>
       </c>
       <c r="D392">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -8608,17 +8608,17 @@
         <v>2022</v>
       </c>
       <c r="D393">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -8629,17 +8629,17 @@
         <v>2022</v>
       </c>
       <c r="D394">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temamonotema</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -8654,13 +8654,13 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -8675,13 +8675,13 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -8696,13 +8696,13 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -8717,13 +8717,13 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -8734,17 +8734,17 @@
         <v>2022</v>
       </c>
       <c r="D399">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>2022</v>
       </c>
       <c r="D400">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="401">
       <c r="A401">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -8780,13 +8780,13 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -8797,17 +8797,17 @@
         <v>2022</v>
       </c>
       <c r="D402">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temabloques</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>2022</v>
       </c>
       <c r="D403">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="404">
       <c r="A404">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -8843,13 +8843,13 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -8864,13 +8864,13 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -8885,13 +8885,13 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -8906,13 +8906,13 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -8927,13 +8927,13 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -8948,13 +8948,13 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>pr_temapuntuales</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -8965,17 +8965,17 @@
         <v>2022</v>
       </c>
       <c r="D410">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>pr_temalibre</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
     </row>
     <row r="412">
       <c r="A412">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -9017,18 +9017,18 @@
     </row>
     <row r="413">
       <c r="A413">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Republica Dominicana</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="C413">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="D413">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -9038,62 +9038,272 @@
     </row>
     <row r="414">
       <c r="A414">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="C414">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="D414">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temalibre</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="C415">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D415">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>pr_temabloques</t>
+          <t>pr_temapuntuales</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416">
+        <v>382</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C416">
+        <v>2022</v>
+      </c>
+      <c r="D416">
+        <v>0.5</v>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>pr_temalibre</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417">
+        <v>383</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C417">
+        <v>2022</v>
+      </c>
+      <c r="D417">
+        <v>0.5</v>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>pr_temapuntuales</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418">
+        <v>383</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C418">
+        <v>2022</v>
+      </c>
+      <c r="D418">
+        <v>0.5</v>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>pr_temalibre</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419">
+        <v>384</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C419">
+        <v>2022</v>
+      </c>
+      <c r="D419">
+        <v>0.5</v>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>pr_temapuntuales</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420">
+        <v>384</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C420">
+        <v>2022</v>
+      </c>
+      <c r="D420">
+        <v>0.5</v>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>pr_temalibre</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421">
+        <v>385</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C421">
+        <v>2022</v>
+      </c>
+      <c r="D421">
+        <v>0.5</v>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>pr_temapuntuales</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422">
+        <v>385</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C422">
+        <v>2022</v>
+      </c>
+      <c r="D422">
+        <v>0.5</v>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>pr_temalibre</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423">
+        <v>386</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Republica Dominicana</t>
+        </is>
+      </c>
+      <c r="C423">
+        <v>2016</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>pr_temapuntuales</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424">
+        <v>388</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="C424">
+        <v>2014</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>pr_temabloques</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425">
+        <v>389</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="C425">
+        <v>2019</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>pr_temabloques</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426">
         <v>390</v>
       </c>
-      <c r="B416" t="inlineStr">
+      <c r="B426" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="C416">
+      <c r="C426">
         <v>2019</v>
       </c>
-      <c r="D416">
-        <v>1</v>
-      </c>
-      <c r="E416" t="inlineStr">
+      <c r="D426">
+        <v>1</v>
+      </c>
+      <c r="E426" t="inlineStr">
         <is>
           <t>pr_temabloques</t>
         </is>
